--- a/src/test/resources/TestData/Data.xlsx
+++ b/src/test/resources/TestData/Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iin001\eclipse-workspace\EnabillProject4.2\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logstarerp-my.sharepoint.com/personal/irfan_inamdar_logstarerp_com/Documents/All Projects Logstar/Selenium Data/Automation Testing/Automation-Hybrid-Framework-Enabill-4.5-main/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBD8501-AFA1-466B-8F23-97B263FD2973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{6CBD8501-AFA1-466B-8F23-97B263FD2973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{634633CD-8D90-459F-94AD-2A53837980B4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>TCName</t>
   </si>
@@ -58,13 +59,130 @@
   </si>
   <si>
     <t>Pass@2023</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 OK</t>
+  </si>
+  <si>
+    <t>TC01_API_ListUsers</t>
+  </si>
+  <si>
+    <t>TC03_API_CreateUserWithMap</t>
+  </si>
+  <si>
+    <t>/api/users</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 201 Created</t>
+  </si>
+  <si>
+    <t>TC04_API_CreateUserWithFile</t>
+  </si>
+  <si>
+    <t>QueryParam</t>
+  </si>
+  <si>
+    <t>StatusLine</t>
+  </si>
+  <si>
+    <t>Validation1</t>
+  </si>
+  <si>
+    <t>Validation2</t>
+  </si>
+  <si>
+    <t>Validation3</t>
+  </si>
+  <si>
+    <t>Validation4</t>
+  </si>
+  <si>
+    <t>/entries</t>
+  </si>
+  <si>
+    <t>entries[0].Description=Resource to help get pets adopted</t>
+  </si>
+  <si>
+    <t>entries[0].Auth=apiKey</t>
+  </si>
+  <si>
+    <t>entries[0].HTTPS=true</t>
+  </si>
+  <si>
+    <t>entries[0].API=AdoptAPet2</t>
+  </si>
+  <si>
+    <t>/posts</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>Test Post</t>
+  </si>
+  <si>
+    <t>This is a test post for testing purposes.</t>
+  </si>
+  <si>
+    <t>title=Test Post</t>
+  </si>
+  <si>
+    <t>body=This is a test post for testing purposes.</t>
+  </si>
+  <si>
+    <t>userId=1</t>
+  </si>
+  <si>
+    <t>Irfan</t>
+  </si>
+  <si>
+    <t>irfaninamdar@logstaererp.com</t>
+  </si>
+  <si>
+    <t>name=Irfan</t>
+  </si>
+  <si>
+    <t>email=irfaninamdar@logstaererp.com</t>
+  </si>
+  <si>
+    <t>age=16</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>TC04_API_CreateUserWithFileXML</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Error 011</t>
+  </si>
+  <si>
+    <t>Errors[0].Code=Error 011</t>
+  </si>
+  <si>
+    <t>/Api/IntegrationBLSAP/CreateBLReceipt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +204,36 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF455A64"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,15 +241,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -395,19 +552,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -432,12 +589,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -457,4 +614,206 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBED2AE-32BC-47D7-9D2C-69139B5F47D6}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="10" max="10" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://reqres.in/api/users?page=2" xr:uid="{F84E8A94-D6A2-4A34-8A34-77D71B6FDF7C}"/>
+    <hyperlink ref="K3" r:id="rId2" display="data.email=janet.weaver@reqres.in" xr:uid="{61F0765F-90E5-4EF3-8029-31E135727B29}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{3587D5CA-54D5-424D-80CC-464F250DF70F}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{7F1F7A40-80F6-4406-9497-C28B27589642}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/Data.xlsx
+++ b/src/test/resources/TestData/Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logstarerp-my.sharepoint.com/personal/irfan_inamdar_logstarerp_com/Documents/All Projects Logstar/Selenium Data/Automation Testing/Automation-Hybrid-Framework-Enabill-4.5-main/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{6CBD8501-AFA1-466B-8F23-97B263FD2973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{634633CD-8D90-459F-94AD-2A53837980B4}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{6CBD8501-AFA1-466B-8F23-97B263FD2973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52E2F693-F4A7-4DEB-9E9C-828CF4CD6F14}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="API" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>TCName</t>
   </si>
@@ -37,27 +38,15 @@
     <t>Password</t>
   </si>
   <si>
-    <t>irfan.inamdar@logstarerp.com</t>
-  </si>
-  <si>
     <t>Pass@222</t>
   </si>
   <si>
     <t>TestCaes1</t>
   </si>
   <si>
-    <t>Customer code</t>
-  </si>
-  <si>
     <t>TestCaes4</t>
   </si>
   <si>
-    <t>TestCaes3</t>
-  </si>
-  <si>
-    <t>ganesh.gantli@logstarerp.cpm</t>
-  </si>
-  <si>
     <t>Pass@2023</t>
   </si>
   <si>
@@ -176,13 +165,43 @@
   </si>
   <si>
     <t>/Api/IntegrationBLSAP/CreateBLReceipt</t>
+  </si>
+  <si>
+    <t>ganesh.kantli@logstarerp.cpm</t>
+  </si>
+  <si>
+    <t>sagar.patil</t>
+  </si>
+  <si>
+    <t>Customercode</t>
+  </si>
+  <si>
+    <t>LongName</t>
+  </si>
+  <si>
+    <t>CTestCase001</t>
+  </si>
+  <si>
+    <t>Inamdar</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Irfan001</t>
+  </si>
+  <si>
+    <t>CTestCase002</t>
+  </si>
+  <si>
+    <t>CTestCase003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +236,12 @@
       <color rgb="FF455A64"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -285,6 +310,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +593,7 @@
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,43 +603,33 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0B7EB196-A042-422D-B4E8-C61BF3E83A29}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{1D863A8E-1AC6-4DBF-9505-5A7FDC3DA94E}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{B6362F7D-4BB2-4888-971C-A50129F7CAAB}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{442E7025-E17F-47B3-AED7-802F890907D5}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B6362F7D-4BB2-4888-971C-A50129F7CAAB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{442E7025-E17F-47B3-AED7-802F890907D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -620,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBED2AE-32BC-47D7-9D2C-69139B5F47D6}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,51 +666,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -701,68 +720,68 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3">
         <v>26</v>
@@ -771,28 +790,28 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -801,10 +820,10 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -816,4 +835,63 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D25FC57-BB37-4DF3-8733-13819436C32A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>